--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,16 +12002,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,16 +12002,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,16 +12002,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,16 +12002,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,16 +12002,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,16 +12002,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/05/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Tolhuaca SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -14071,7 +14071,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F190" t="n">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -7735,7 +7735,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>AGROORGANICOS MOSTAZAL LIMITADA</t>
+          <t>Biogás Mostazal SpA.</t>
         </is>
       </c>
       <c r="F154" t="n">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>\"PLANTA PROCESADORA DE FRUTOS SECOS MOSTAZAL\" ? PACIFIC NUT COMPANY CHILE S.A</t>
+          <t>Planta Procesadora de Frutos Secos Mostazal. Pacific Nut Company Chile S.A.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159392563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159287010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02/06/2023</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutos Secos Mostazal. Pacific Nut Company Chile S.A.</t>
+          <t>\"PLANTA PROCESADORA DE FRUTOS SECOS MOSTAZAL\" ? PACIFIC NUT COMPANY CHILE S.A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/05/2023</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159287010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159392563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutos Secos Mostazal. Pacific Nut Company Chile S.A.</t>
+          <t>\"PLANTA PROCESADORA DE FRUTOS SECOS MOSTAZAL\" ? PACIFIC NUT COMPANY CHILE S.A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159287010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159392563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>30/05/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>\"PLANTA PROCESADORA DE FRUTOS SECOS MOSTAZAL\" ? PACIFIC NUT COMPANY CHILE S.A</t>
+          <t>Planta Procesadora de Frutos Secos Mostazal. Pacific Nut Company Chile S.A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159392563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159287010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/09/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Sistema de Tratamiento de Purines</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Agrícola El Tranque de Angostura Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Cartocor Chile S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>22</v>
+        <v>27000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Fábrica de Planchas y Cajas de Cartón Corrugados (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Cartocor Chile S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>27000</v>
+        <v>22</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1188228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mostazal.xlsx
+++ b/data/Mostazal.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
